--- a/state_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
+++ b/state_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U187"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>2.65</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64084552200928</v>
+        <v>2.64054819580272</v>
       </c>
       <c r="H2" t="n">
         <v>7.3</v>
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>99.6393208759786</v>
+        <v>99.63952139736671</v>
       </c>
       <c r="H5" t="n">
         <v>1223</v>
@@ -898,7 +898,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>99.6393208759786</v>
+        <v>99.63952139736671</v>
       </c>
       <c r="H6" t="n">
         <v>1223</v>
@@ -983,7 +983,7 @@
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>99.6393208759786</v>
+        <v>99.63952139736671</v>
       </c>
       <c r="H7" t="n">
         <v>1223</v>
@@ -1068,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>99.6393208759786</v>
+        <v>99.63952139736671</v>
       </c>
       <c r="H8" t="n">
         <v>1223</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00094</v>
+        <v>0.00102</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0037790480667882</v>
+        <v>0.0038157957306534</v>
       </c>
       <c r="H9" t="n">
         <v>0.0675354029345073</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00082</v>
+        <v>0.00091</v>
       </c>
       <c r="M9" t="n">
         <v>0.00445</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00094</v>
+        <v>0.00102</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0037790480667882</v>
+        <v>0.0038157957306534</v>
       </c>
       <c r="H10" t="n">
         <v>0.0675354029345073</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00082</v>
+        <v>0.00091</v>
       </c>
       <c r="M10" t="n">
         <v>0.00445</v>
@@ -1315,7 +1315,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08137263314687811</v>
+        <v>0.081397743969571</v>
       </c>
       <c r="H11" t="n">
         <v>0.19</v>
@@ -1396,7 +1396,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08137263314687811</v>
+        <v>0.081397743969571</v>
       </c>
       <c r="H12" t="n">
         <v>0.19</v>
@@ -1473,7 +1473,7 @@
         <v>0.078</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08612280701754391</v>
+        <v>0.0861333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0.197</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.062</v>
+        <v>0.0615</v>
       </c>
       <c r="M13" t="n">
         <v>0.12143</v>
@@ -1550,7 +1550,7 @@
         <v>0.078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08612280701754391</v>
+        <v>0.0861333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0.197</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.062</v>
+        <v>0.0615</v>
       </c>
       <c r="M14" t="n">
         <v>0.12143</v>
@@ -1627,7 +1627,7 @@
         <v>0.11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.127489846991577</v>
+        <v>0.127552748147698</v>
       </c>
       <c r="H15" t="n">
         <v>0.54</v>
@@ -1704,7 +1704,7 @@
         <v>0.11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.127489846991577</v>
+        <v>0.127552748147698</v>
       </c>
       <c r="H16" t="n">
         <v>0.54</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0034695443388358</v>
+        <v>0.0035021546206631</v>
       </c>
       <c r="H26" t="n">
         <v>0.0675354029345073</v>
@@ -2533,7 +2533,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00082</v>
+        <v>0.00091</v>
       </c>
       <c r="M26" t="n">
         <v>0.00409</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0034695443388358</v>
+        <v>0.0035021546206631</v>
       </c>
       <c r="H27" t="n">
         <v>0.0675354029345073</v>
@@ -2614,7 +2614,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00082</v>
+        <v>0.00091</v>
       </c>
       <c r="M27" t="n">
         <v>0.00409</v>
@@ -2684,7 +2684,7 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07780541790794521</v>
+        <v>0.0778252973092437</v>
       </c>
       <c r="H28" t="n">
         <v>0.2219</v>
@@ -2765,7 +2765,7 @@
         <v>0.06850000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07780541790794521</v>
+        <v>0.0778252973092437</v>
       </c>
       <c r="H29" t="n">
         <v>0.2219</v>
@@ -2842,10 +2842,10 @@
         <v>0.075</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0818448275862069</v>
+        <v>0.0818810344827586</v>
       </c>
       <c r="H30" t="n">
-        <v>0.224</v>
+        <v>0.2237</v>
       </c>
       <c r="I30" t="n">
         <v>0.175</v>
@@ -2856,7 +2856,7 @@
         <v>0.061</v>
       </c>
       <c r="M30" t="n">
-        <v>0.11456</v>
+        <v>0.11437</v>
       </c>
       <c r="N30" t="n">
         <v>0.1436</v>
@@ -2919,10 +2919,10 @@
         <v>0.075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0818448275862069</v>
+        <v>0.0818810344827586</v>
       </c>
       <c r="H31" t="n">
-        <v>0.224</v>
+        <v>0.2237</v>
       </c>
       <c r="I31" t="n">
         <v>0.175</v>
@@ -2933,7 +2933,7 @@
         <v>0.061</v>
       </c>
       <c r="M31" t="n">
-        <v>0.11456</v>
+        <v>0.11437</v>
       </c>
       <c r="N31" t="n">
         <v>0.1436</v>
@@ -2996,7 +2996,7 @@
         <v>0.115</v>
       </c>
       <c r="G32" t="n">
-        <v>0.137981401353791</v>
+        <v>0.138043218007221</v>
       </c>
       <c r="H32" t="n">
         <v>0.54</v>
@@ -3073,7 +3073,7 @@
         <v>0.115</v>
       </c>
       <c r="G33" t="n">
-        <v>0.137981401353791</v>
+        <v>0.138043218007221</v>
       </c>
       <c r="H33" t="n">
         <v>0.54</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.0009</v>
+        <v>0.00098</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0036010376956215</v>
+        <v>0.0036282386487998</v>
       </c>
       <c r="H43" t="n">
         <v>0.0675354029345073</v>
@@ -3902,7 +3902,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00082</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M43" t="n">
         <v>0.00437</v>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0009</v>
+        <v>0.00098</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0036010376956215</v>
+        <v>0.0036282386487998</v>
       </c>
       <c r="H44" t="n">
         <v>0.0675354029345073</v>
@@ -3983,7 +3983,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00082</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M44" t="n">
         <v>0.00437</v>
@@ -4053,7 +4053,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0857924148203684</v>
+        <v>0.0858088667386844</v>
       </c>
       <c r="H45" t="n">
         <v>0.231</v>
@@ -4134,7 +4134,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0857924148203684</v>
+        <v>0.0858088667386844</v>
       </c>
       <c r="H46" t="n">
         <v>0.231</v>
@@ -4208,24 +4208,24 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.0785</v>
+        <v>0.07854999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0935</v>
+        <v>0.0935448275862069</v>
       </c>
       <c r="H47" t="n">
-        <v>0.235</v>
+        <v>0.2354</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2132</v>
+        <v>0.21302</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.0655</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="M47" t="n">
-        <v>0.135</v>
+        <v>0.13526</v>
       </c>
       <c r="N47" t="n">
         <v>0.175</v>
@@ -4285,24 +4285,24 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.0785</v>
+        <v>0.07854999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0935</v>
+        <v>0.0935448275862069</v>
       </c>
       <c r="H48" t="n">
-        <v>0.235</v>
+        <v>0.2354</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2132</v>
+        <v>0.21302</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.0655</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>0.135</v>
+        <v>0.13526</v>
       </c>
       <c r="N48" t="n">
         <v>0.175</v>
@@ -4365,7 +4365,7 @@
         <v>0.16</v>
       </c>
       <c r="G49" t="n">
-        <v>0.162550366871032</v>
+        <v>0.162612183524462</v>
       </c>
       <c r="H49" t="n">
         <v>0.54</v>
@@ -4442,7 +4442,7 @@
         <v>0.16</v>
       </c>
       <c r="G50" t="n">
-        <v>0.162550366871032</v>
+        <v>0.162612183524462</v>
       </c>
       <c r="H50" t="n">
         <v>0.54</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.00087</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0032706727527552</v>
+        <v>0.0033009792722949</v>
       </c>
       <c r="H60" t="n">
         <v>0.0675354029345073</v>
@@ -5271,7 +5271,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.0008</v>
+        <v>0.00088</v>
       </c>
       <c r="M60" t="n">
         <v>0.00376</v>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00087</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0032706727527552</v>
+        <v>0.0033009792722949</v>
       </c>
       <c r="H61" t="n">
         <v>0.0675354029345073</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.0008</v>
+        <v>0.00088</v>
       </c>
       <c r="M61" t="n">
         <v>0.00376</v>
@@ -5422,7 +5422,7 @@
         <v>0.0992</v>
       </c>
       <c r="G62" t="n">
-        <v>0.109461333829845</v>
+        <v>0.109469285590364</v>
       </c>
       <c r="H62" t="n">
         <v>0.256</v>
@@ -5503,7 +5503,7 @@
         <v>0.0992</v>
       </c>
       <c r="G63" t="n">
-        <v>0.109461333829845</v>
+        <v>0.109469285590364</v>
       </c>
       <c r="H63" t="n">
         <v>0.256</v>
@@ -5580,13 +5580,13 @@
         <v>0.108</v>
       </c>
       <c r="G64" t="n">
-        <v>0.117333333333333</v>
+        <v>0.117356666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0.267</v>
+        <v>0.2673</v>
       </c>
       <c r="I64" t="n">
-        <v>0.235</v>
+        <v>0.2352</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5597,7 +5597,7 @@
         <v>0.181</v>
       </c>
       <c r="N64" t="n">
-        <v>0.2268</v>
+        <v>0.2265</v>
       </c>
       <c r="O64" t="n">
         <v>1812051</v>
@@ -5657,13 +5657,13 @@
         <v>0.108</v>
       </c>
       <c r="G65" t="n">
-        <v>0.117333333333333</v>
+        <v>0.117356666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0.267</v>
+        <v>0.2673</v>
       </c>
       <c r="I65" t="n">
-        <v>0.235</v>
+        <v>0.2352</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5674,7 +5674,7 @@
         <v>0.181</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2268</v>
+        <v>0.2265</v>
       </c>
       <c r="O65" t="n">
         <v>1812051</v>
@@ -6289,7 +6289,7 @@
         <v>16.5</v>
       </c>
       <c r="G73" t="n">
-        <v>36.4097402445069</v>
+        <v>36.4091489486429</v>
       </c>
       <c r="H73" t="n">
         <v>258</v>
@@ -6374,7 +6374,7 @@
         <v>16.5</v>
       </c>
       <c r="G74" t="n">
-        <v>36.4097402445069</v>
+        <v>36.4091489486429</v>
       </c>
       <c r="H74" t="n">
         <v>258</v>
@@ -6459,7 +6459,7 @@
         <v>16.5</v>
       </c>
       <c r="G75" t="n">
-        <v>36.4097402445069</v>
+        <v>36.4091489486429</v>
       </c>
       <c r="H75" t="n">
         <v>258</v>
@@ -6544,7 +6544,7 @@
         <v>16.5</v>
       </c>
       <c r="G76" t="n">
-        <v>36.4097402445069</v>
+        <v>36.4091489486429</v>
       </c>
       <c r="H76" t="n">
         <v>258</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00101</v>
+        <v>0.00109</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0026877669293297</v>
+        <v>0.0027264412799585</v>
       </c>
       <c r="H77" t="n">
         <v>0.0675354029345073</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00092</v>
+        <v>0.00101</v>
       </c>
       <c r="M77" t="n">
         <v>0.00302</v>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00101</v>
+        <v>0.00109</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0026877669293297</v>
+        <v>0.0027264412799585</v>
       </c>
       <c r="H78" t="n">
         <v>0.0675354029345073</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00092</v>
+        <v>0.00101</v>
       </c>
       <c r="M78" t="n">
         <v>0.00302</v>
@@ -6791,7 +6791,7 @@
         <v>0.138</v>
       </c>
       <c r="G79" t="n">
-        <v>0.139728000496511</v>
+        <v>0.139735952257031</v>
       </c>
       <c r="H79" t="n">
         <v>0.31</v>
@@ -6872,7 +6872,7 @@
         <v>0.138</v>
       </c>
       <c r="G80" t="n">
-        <v>0.139728000496511</v>
+        <v>0.139735952257031</v>
       </c>
       <c r="H80" t="n">
         <v>0.31</v>
@@ -6949,7 +6949,7 @@
         <v>0.145</v>
       </c>
       <c r="G81" t="n">
-        <v>0.147233333333333</v>
+        <v>0.147256666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0.325</v>
@@ -6960,13 +6960,13 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.1255</v>
+        <v>0.12535</v>
       </c>
       <c r="M81" t="n">
-        <v>0.2301</v>
+        <v>0.22989</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2664</v>
+        <v>0.26661</v>
       </c>
       <c r="O81" t="n">
         <v>1812051</v>
@@ -7026,7 +7026,7 @@
         <v>0.145</v>
       </c>
       <c r="G82" t="n">
-        <v>0.147233333333333</v>
+        <v>0.147256666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0.325</v>
@@ -7037,13 +7037,13 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.1255</v>
+        <v>0.12535</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2301</v>
+        <v>0.22989</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2664</v>
+        <v>0.26661</v>
       </c>
       <c r="O82" t="n">
         <v>1812051</v>
@@ -7658,7 +7658,7 @@
         <v>16</v>
       </c>
       <c r="G90" t="n">
-        <v>34.5821333410031</v>
+        <v>34.5780756445381</v>
       </c>
       <c r="H90" t="n">
         <v>258</v>
@@ -7743,7 +7743,7 @@
         <v>16</v>
       </c>
       <c r="G91" t="n">
-        <v>34.5821333410031</v>
+        <v>34.5780756445381</v>
       </c>
       <c r="H91" t="n">
         <v>258</v>
@@ -7828,7 +7828,7 @@
         <v>16</v>
       </c>
       <c r="G92" t="n">
-        <v>34.5821333410031</v>
+        <v>34.5780756445381</v>
       </c>
       <c r="H92" t="n">
         <v>258</v>
@@ -7913,7 +7913,7 @@
         <v>16</v>
       </c>
       <c r="G93" t="n">
-        <v>34.5821333410031</v>
+        <v>34.5780756445381</v>
       </c>
       <c r="H93" t="n">
         <v>258</v>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.0011</v>
+        <v>0.00115</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0014806509756997</v>
+        <v>0.0015291061306612</v>
       </c>
       <c r="H94" t="n">
         <v>0.0103139577511575</v>
@@ -8009,7 +8009,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00105</v>
       </c>
       <c r="M94" t="n">
         <v>0.0022</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.0011</v>
+        <v>0.00115</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0014806509756997</v>
+        <v>0.0015291061306612</v>
       </c>
       <c r="H95" t="n">
         <v>0.0103139577511575</v>
@@ -8090,7 +8090,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00105</v>
       </c>
       <c r="M95" t="n">
         <v>0.0022</v>
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.172</v>
+        <v>0.1722</v>
       </c>
       <c r="G98" t="n">
-        <v>0.172166666666667</v>
+        <v>0.17219</v>
       </c>
       <c r="H98" t="n">
         <v>0.345</v>
@@ -8329,7 +8329,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.1585</v>
+        <v>0.15865</v>
       </c>
       <c r="M98" t="n">
         <v>0.265</v>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.172</v>
+        <v>0.1722</v>
       </c>
       <c r="G99" t="n">
-        <v>0.172166666666667</v>
+        <v>0.17219</v>
       </c>
       <c r="H99" t="n">
         <v>0.345</v>
@@ -8406,7 +8406,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.1585</v>
+        <v>0.15865</v>
       </c>
       <c r="M99" t="n">
         <v>0.265</v>
@@ -9027,7 +9027,7 @@
         <v>16</v>
       </c>
       <c r="G107" t="n">
-        <v>91.2821333410031</v>
+        <v>91.27807564453811</v>
       </c>
       <c r="H107" t="n">
         <v>2900</v>
@@ -9112,7 +9112,7 @@
         <v>16</v>
       </c>
       <c r="G108" t="n">
-        <v>91.2821333410031</v>
+        <v>91.27807564453811</v>
       </c>
       <c r="H108" t="n">
         <v>2900</v>
@@ -9197,7 +9197,7 @@
         <v>16</v>
       </c>
       <c r="G109" t="n">
-        <v>91.2821333410031</v>
+        <v>91.27807564453811</v>
       </c>
       <c r="H109" t="n">
         <v>2900</v>
@@ -9282,7 +9282,7 @@
         <v>16</v>
       </c>
       <c r="G110" t="n">
-        <v>91.2821333410031</v>
+        <v>91.27807564453811</v>
       </c>
       <c r="H110" t="n">
         <v>2900</v>
@@ -9364,27 +9364,27 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00145</v>
+        <v>0.00155</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0018341221042568</v>
+        <v>0.0019066465917463</v>
       </c>
       <c r="H111" t="n">
         <v>0.0103139577511575</v>
       </c>
       <c r="I111" t="n">
-        <v>0.00421</v>
+        <v>0.00432</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00123</v>
+        <v>0.00131</v>
       </c>
       <c r="M111" t="n">
-        <v>0.00265</v>
+        <v>0.00277</v>
       </c>
       <c r="N111" t="n">
-        <v>0.00353</v>
+        <v>0.00364</v>
       </c>
       <c r="O111" t="n">
         <v>1812051</v>
@@ -9445,27 +9445,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00145</v>
+        <v>0.00155</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0018341221042568</v>
+        <v>0.0019066465917463</v>
       </c>
       <c r="H112" t="n">
         <v>0.0103139577511575</v>
       </c>
       <c r="I112" t="n">
-        <v>0.00421</v>
+        <v>0.00432</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00123</v>
+        <v>0.00131</v>
       </c>
       <c r="M112" t="n">
-        <v>0.00265</v>
+        <v>0.00277</v>
       </c>
       <c r="N112" t="n">
-        <v>0.00353</v>
+        <v>0.00364</v>
       </c>
       <c r="O112" t="n">
         <v>1812051</v>
@@ -9687,7 +9687,7 @@
         <v>0.2</v>
       </c>
       <c r="G115" t="n">
-        <v>0.2004</v>
+        <v>0.20042</v>
       </c>
       <c r="H115" t="n">
         <v>0.385</v>
@@ -9698,7 +9698,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.1765</v>
+        <v>0.17645</v>
       </c>
       <c r="M115" t="n">
         <v>0.285</v>
@@ -9764,7 +9764,7 @@
         <v>0.2</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2004</v>
+        <v>0.20042</v>
       </c>
       <c r="H116" t="n">
         <v>0.385</v>
@@ -9775,7 +9775,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.1765</v>
+        <v>0.17645</v>
       </c>
       <c r="M116" t="n">
         <v>0.285</v>
@@ -10153,7 +10153,7 @@
         <v>2.62</v>
       </c>
       <c r="G121" t="n">
-        <v>2.63008901341376</v>
+        <v>2.62847316361521</v>
       </c>
       <c r="H121" t="n">
         <v>4.96</v>
@@ -10396,7 +10396,7 @@
         <v>21</v>
       </c>
       <c r="G124" t="n">
-        <v>123.04880000767</v>
+        <v>123.044742311205</v>
       </c>
       <c r="H124" t="n">
         <v>2900</v>
@@ -10481,7 +10481,7 @@
         <v>21</v>
       </c>
       <c r="G125" t="n">
-        <v>123.04880000767</v>
+        <v>123.044742311205</v>
       </c>
       <c r="H125" t="n">
         <v>2900</v>
@@ -10566,7 +10566,7 @@
         <v>21</v>
       </c>
       <c r="G126" t="n">
-        <v>123.04880000767</v>
+        <v>123.044742311205</v>
       </c>
       <c r="H126" t="n">
         <v>2900</v>
@@ -10651,7 +10651,7 @@
         <v>21</v>
       </c>
       <c r="G127" t="n">
-        <v>123.04880000767</v>
+        <v>123.044742311205</v>
       </c>
       <c r="H127" t="n">
         <v>2900</v>
@@ -10733,27 +10733,27 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00169</v>
+        <v>0.00176</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0022619862505698</v>
+        <v>0.0023550025364148</v>
       </c>
       <c r="H128" t="n">
         <v>0.0067263935143009</v>
       </c>
       <c r="I128" t="n">
-        <v>0.00547</v>
+        <v>0.00558</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00149</v>
+        <v>0.0016</v>
       </c>
       <c r="M128" t="n">
-        <v>0.00374</v>
+        <v>0.00386</v>
       </c>
       <c r="N128" t="n">
-        <v>0.00477</v>
+        <v>0.0049</v>
       </c>
       <c r="O128" t="n">
         <v>1812051</v>
@@ -10814,27 +10814,27 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00169</v>
+        <v>0.00176</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0022619862505698</v>
+        <v>0.0023550025364148</v>
       </c>
       <c r="H129" t="n">
         <v>0.0067263935143009</v>
       </c>
       <c r="I129" t="n">
-        <v>0.00547</v>
+        <v>0.00558</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00149</v>
+        <v>0.0016</v>
       </c>
       <c r="M129" t="n">
-        <v>0.00374</v>
+        <v>0.00386</v>
       </c>
       <c r="N129" t="n">
-        <v>0.00477</v>
+        <v>0.0049</v>
       </c>
       <c r="O129" t="n">
         <v>1812051</v>
@@ -11056,7 +11056,7 @@
         <v>0.205</v>
       </c>
       <c r="G132" t="n">
-        <v>0.218866666666667</v>
+        <v>0.218878333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0.385</v>
@@ -11133,7 +11133,7 @@
         <v>0.205</v>
       </c>
       <c r="G133" t="n">
-        <v>0.218866666666667</v>
+        <v>0.218878333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0.385</v>
@@ -11522,7 +11522,7 @@
         <v>2.45</v>
       </c>
       <c r="G138" t="n">
-        <v>2.49959768306126</v>
+        <v>2.4976227555297</v>
       </c>
       <c r="H138" t="n">
         <v>4.96</v>
@@ -11765,7 +11765,7 @@
         <v>25</v>
       </c>
       <c r="G141" t="n">
-        <v>138.411720195462</v>
+        <v>138.403944658877</v>
       </c>
       <c r="H141" t="n">
         <v>2900</v>
@@ -11850,7 +11850,7 @@
         <v>25</v>
       </c>
       <c r="G142" t="n">
-        <v>138.411720195462</v>
+        <v>138.403944658877</v>
       </c>
       <c r="H142" t="n">
         <v>2900</v>
@@ -11935,7 +11935,7 @@
         <v>25</v>
       </c>
       <c r="G143" t="n">
-        <v>138.411720195462</v>
+        <v>138.403944658877</v>
       </c>
       <c r="H143" t="n">
         <v>2900</v>
@@ -12020,7 +12020,7 @@
         <v>25</v>
       </c>
       <c r="G144" t="n">
-        <v>138.411720195462</v>
+        <v>138.403944658877</v>
       </c>
       <c r="H144" t="n">
         <v>2900</v>
@@ -12102,16 +12102,16 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00204</v>
+        <v>0.00216</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0026348724725397</v>
+        <v>0.0027245267547699</v>
       </c>
       <c r="H145" t="n">
         <v>0.0129173456372569</v>
       </c>
       <c r="I145" t="n">
-        <v>0.00614</v>
+        <v>0.00641</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -12119,10 +12119,10 @@
         <v>0.00175</v>
       </c>
       <c r="M145" t="n">
-        <v>0.00409</v>
+        <v>0.00411</v>
       </c>
       <c r="N145" t="n">
-        <v>0.00523</v>
+        <v>0.00533</v>
       </c>
       <c r="O145" t="n">
         <v>1812051</v>
@@ -12183,16 +12183,16 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.00204</v>
+        <v>0.00216</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0026348724725397</v>
+        <v>0.0027245267547699</v>
       </c>
       <c r="H146" t="n">
         <v>0.0129173456372569</v>
       </c>
       <c r="I146" t="n">
-        <v>0.00614</v>
+        <v>0.00641</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -12200,10 +12200,10 @@
         <v>0.00175</v>
       </c>
       <c r="M146" t="n">
-        <v>0.00409</v>
+        <v>0.00411</v>
       </c>
       <c r="N146" t="n">
-        <v>0.00523</v>
+        <v>0.00533</v>
       </c>
       <c r="O146" t="n">
         <v>1812051</v>
@@ -12425,7 +12425,7 @@
         <v>0.205</v>
       </c>
       <c r="G149" t="n">
-        <v>0.214084745762712</v>
+        <v>0.21406779661017</v>
       </c>
       <c r="H149" t="n">
         <v>0.385</v>
@@ -12436,7 +12436,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.1915</v>
+        <v>0.19125</v>
       </c>
       <c r="M149" t="n">
         <v>0.2944</v>
@@ -12502,7 +12502,7 @@
         <v>0.205</v>
       </c>
       <c r="G150" t="n">
-        <v>0.214084745762712</v>
+        <v>0.21406779661017</v>
       </c>
       <c r="H150" t="n">
         <v>0.385</v>
@@ -12513,7 +12513,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.1915</v>
+        <v>0.19125</v>
       </c>
       <c r="M150" t="n">
         <v>0.2944</v>
@@ -12891,7 +12891,7 @@
         <v>2.45</v>
       </c>
       <c r="G155" t="n">
-        <v>2.33829105111049</v>
+        <v>2.33567717643637</v>
       </c>
       <c r="H155" t="n">
         <v>4.48</v>
@@ -13134,7 +13134,7 @@
         <v>30</v>
       </c>
       <c r="G158" t="n">
-        <v>153.876391133251</v>
+        <v>153.869216914495</v>
       </c>
       <c r="H158" t="n">
         <v>2900</v>
@@ -13219,7 +13219,7 @@
         <v>30</v>
       </c>
       <c r="G159" t="n">
-        <v>153.876391133251</v>
+        <v>153.869216914495</v>
       </c>
       <c r="H159" t="n">
         <v>2900</v>
@@ -13304,7 +13304,7 @@
         <v>30</v>
       </c>
       <c r="G160" t="n">
-        <v>153.876391133251</v>
+        <v>153.869216914495</v>
       </c>
       <c r="H160" t="n">
         <v>2900</v>
@@ -13389,7 +13389,7 @@
         <v>30</v>
       </c>
       <c r="G161" t="n">
-        <v>153.876391133251</v>
+        <v>153.869216914495</v>
       </c>
       <c r="H161" t="n">
         <v>2900</v>
@@ -13474,13 +13474,13 @@
         <v>0.00223</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0025989670991365</v>
+        <v>0.0026673775792341</v>
       </c>
       <c r="H162" t="n">
         <v>0.0129173456372569</v>
       </c>
       <c r="I162" t="n">
-        <v>0.00614</v>
+        <v>0.00641</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -13488,10 +13488,10 @@
         <v>0.00175</v>
       </c>
       <c r="M162" t="n">
-        <v>0.00374</v>
+        <v>0.00387</v>
       </c>
       <c r="N162" t="n">
-        <v>0.00523</v>
+        <v>0.00533</v>
       </c>
       <c r="O162" t="n">
         <v>1812051</v>
@@ -13555,13 +13555,13 @@
         <v>0.00223</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0025989670991365</v>
+        <v>0.0026673775792341</v>
       </c>
       <c r="H163" t="n">
         <v>0.0129173456372569</v>
       </c>
       <c r="I163" t="n">
-        <v>0.00614</v>
+        <v>0.00641</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -13569,10 +13569,10 @@
         <v>0.00175</v>
       </c>
       <c r="M163" t="n">
-        <v>0.00374</v>
+        <v>0.00387</v>
       </c>
       <c r="N163" t="n">
-        <v>0.00523</v>
+        <v>0.00533</v>
       </c>
       <c r="O163" t="n">
         <v>1812051</v>
@@ -13794,7 +13794,7 @@
         <v>0.175</v>
       </c>
       <c r="G166" t="n">
-        <v>0.191152542372881</v>
+        <v>0.19114406779661</v>
       </c>
       <c r="H166" t="n">
         <v>0.385</v>
@@ -13871,7 +13871,7 @@
         <v>0.175</v>
       </c>
       <c r="G167" t="n">
-        <v>0.191152542372881</v>
+        <v>0.19114406779661</v>
       </c>
       <c r="H167" t="n">
         <v>0.385</v>
@@ -14422,7 +14422,7 @@
         <v>48</v>
       </c>
       <c r="G174" t="n">
-        <v>161.44683883173</v>
+        <v>161.443189766127</v>
       </c>
       <c r="H174" t="n">
         <v>2900</v>
@@ -14507,7 +14507,7 @@
         <v>48</v>
       </c>
       <c r="G175" t="n">
-        <v>161.44683883173</v>
+        <v>161.443189766127</v>
       </c>
       <c r="H175" t="n">
         <v>2900</v>
@@ -14592,7 +14592,7 @@
         <v>48</v>
       </c>
       <c r="G176" t="n">
-        <v>161.44683883173</v>
+        <v>161.443189766127</v>
       </c>
       <c r="H176" t="n">
         <v>2900</v>
@@ -14677,7 +14677,7 @@
         <v>48</v>
       </c>
       <c r="G177" t="n">
-        <v>161.44683883173</v>
+        <v>161.443189766127</v>
       </c>
       <c r="H177" t="n">
         <v>2900</v>
@@ -14759,16 +14759,16 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.00237</v>
+        <v>0.00239</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0028116500569461</v>
+        <v>0.0028562057585742</v>
       </c>
       <c r="H178" t="n">
         <v>0.0129173456372569</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0067</v>
+        <v>0.00671</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -14776,10 +14776,10 @@
         <v>0.0021</v>
       </c>
       <c r="M178" t="n">
-        <v>0.00415</v>
+        <v>0.00432</v>
       </c>
       <c r="N178" t="n">
-        <v>0.00584</v>
+        <v>0.00602</v>
       </c>
       <c r="O178" t="n">
         <v>1812051</v>
@@ -14840,16 +14840,16 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.00237</v>
+        <v>0.00239</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0028116500569461</v>
+        <v>0.0028562057585742</v>
       </c>
       <c r="H179" t="n">
         <v>0.0129173456372569</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0067</v>
+        <v>0.00671</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -14857,10 +14857,10 @@
         <v>0.0021</v>
       </c>
       <c r="M179" t="n">
-        <v>0.00415</v>
+        <v>0.00432</v>
       </c>
       <c r="N179" t="n">
-        <v>0.00584</v>
+        <v>0.00602</v>
       </c>
       <c r="O179" t="n">
         <v>1812051</v>
@@ -15518,6 +15518,1294 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0206779661016949</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.03755</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.03434</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0206779661016949</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.03755</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.03434</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>44</v>
+      </c>
+      <c r="G190" t="n">
+        <v>121.644409828233</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I190" t="n">
+        <v>437</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.38983050847458</v>
+      </c>
+      <c r="K190" t="n">
+        <v>11.864406779661</v>
+      </c>
+      <c r="L190" t="n">
+        <v>117</v>
+      </c>
+      <c r="M190" t="n">
+        <v>210.34</v>
+      </c>
+      <c r="N190" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>44</v>
+      </c>
+      <c r="G191" t="n">
+        <v>121.644409828233</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I191" t="n">
+        <v>437</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3.38983050847458</v>
+      </c>
+      <c r="K191" t="n">
+        <v>11.864406779661</v>
+      </c>
+      <c r="L191" t="n">
+        <v>117</v>
+      </c>
+      <c r="M191" t="n">
+        <v>210.34</v>
+      </c>
+      <c r="N191" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>44</v>
+      </c>
+      <c r="G192" t="n">
+        <v>121.644409828233</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I192" t="n">
+        <v>437</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.38983050847458</v>
+      </c>
+      <c r="K192" t="n">
+        <v>11.864406779661</v>
+      </c>
+      <c r="L192" t="n">
+        <v>117</v>
+      </c>
+      <c r="M192" t="n">
+        <v>210.34</v>
+      </c>
+      <c r="N192" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>44</v>
+      </c>
+      <c r="G193" t="n">
+        <v>121.644409828233</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I193" t="n">
+        <v>437</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.38983050847458</v>
+      </c>
+      <c r="K193" t="n">
+        <v>11.864406779661</v>
+      </c>
+      <c r="L193" t="n">
+        <v>117</v>
+      </c>
+      <c r="M193" t="n">
+        <v>210.34</v>
+      </c>
+      <c r="N193" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.00196</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.0025384763833383</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.0129173456372569</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.00652</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.00386</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.00518</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.00196</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0025384763833383</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.0129173456372569</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.00652</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.00386</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.00518</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.136915254237288</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.23135</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.1385</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.18382</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.21812</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.136915254237288</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.23135</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.1385</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.18382</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.21812</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.144381355932203</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.19121</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.144381355932203</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.19121</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.175762711864407</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.2855</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.2194</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.175762711864407</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.2855</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.2194</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0307627118644068</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.04965</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.04678</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0307627118644068</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.04965</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.04678</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
+++ b/state_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
@@ -10150,10 +10150,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G121" t="n">
-        <v>2.62847316361521</v>
+        <v>2.65718308816016</v>
       </c>
       <c r="H121" t="n">
         <v>4.96</v>
@@ -10164,7 +10164,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>2.813</v>
+        <v>2.928</v>
       </c>
       <c r="M121" t="n">
         <v>3.582</v>
@@ -11519,10 +11519,10 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="G138" t="n">
-        <v>2.4976227555297</v>
+        <v>2.53271266330687</v>
       </c>
       <c r="H138" t="n">
         <v>4.96</v>
@@ -11533,7 +11533,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>2.735</v>
+        <v>2.793</v>
       </c>
       <c r="M138" t="n">
         <v>3.2425</v>
@@ -12888,10 +12888,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2.45</v>
+        <v>2.475</v>
       </c>
       <c r="G155" t="n">
-        <v>2.33567717643637</v>
+        <v>2.38211970143556</v>
       </c>
       <c r="H155" t="n">
         <v>4.48</v>
@@ -12902,7 +12902,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>2.793</v>
+        <v>2.928</v>
       </c>
       <c r="M155" t="n">
         <v>3.1972</v>
